--- a/asets/TabelaGeralDadosCestadeCompras.xlsx
+++ b/asets/TabelaGeralDadosCestadeCompras.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo Couto\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>NomeItem</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Alimentos</t>
   </si>
   <si>
-    <t>UND</t>
-  </si>
-  <si>
     <t>Medida</t>
   </si>
   <si>
@@ -124,6 +121,72 @@
   </si>
   <si>
     <t>NomeLista</t>
+  </si>
+  <si>
+    <t>Luiz</t>
+  </si>
+  <si>
+    <t>Tavares</t>
+  </si>
+  <si>
+    <t>Fanta</t>
+  </si>
+  <si>
+    <t>Litro</t>
+  </si>
+  <si>
+    <t>EPA</t>
+  </si>
+  <si>
+    <t>Minha Lista</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Arroz</t>
+  </si>
+  <si>
+    <t>Sepé</t>
+  </si>
+  <si>
+    <t>Lista Principal</t>
+  </si>
+  <si>
+    <t>Juliana</t>
+  </si>
+  <si>
+    <t>Almeida</t>
+  </si>
+  <si>
+    <t>Feijão</t>
+  </si>
+  <si>
+    <t>Pelé</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Clemente</t>
+  </si>
+  <si>
+    <t>Limão</t>
+  </si>
+  <si>
+    <t>Hortifruti</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>Epa</t>
+  </si>
+  <si>
+    <t>Frutas</t>
   </si>
 </sst>
 </file>
@@ -191,15 +254,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -522,19 +593,19 @@
       <selection activeCell="L4" sqref="L4:Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" customWidth="1"/>
-    <col min="16" max="16" width="15.77734375" customWidth="1"/>
-    <col min="17" max="17" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -575,7 +646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -605,25 +676,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:P9"/>
+  <dimension ref="A7:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -639,21 +711,23 @@
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="G7" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>4</v>
@@ -667,102 +741,306 @@
       <c r="O7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5">
+        <v>123</v>
+      </c>
+      <c r="D8" s="6">
+        <v>35064</v>
+      </c>
+      <c r="E8" s="6">
+        <v>43023</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="5">
+        <v>9.9</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="6">
+        <v>42809</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0.3444444444444445</v>
+      </c>
+      <c r="O8" s="5">
+        <v>5</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1223</v>
+      </c>
+      <c r="D9" s="6">
+        <v>36910</v>
+      </c>
+      <c r="E9" s="6">
+        <v>42992</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="5">
+        <v>19</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="6">
+        <v>42809</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.34652777777777777</v>
+      </c>
+      <c r="O9" s="5">
+        <v>4</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1234</v>
+      </c>
+      <c r="D10" s="6">
+        <v>37358</v>
+      </c>
+      <c r="E10" s="6">
+        <v>42781</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="5">
+        <v>12</v>
+      </c>
+      <c r="J10" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="6">
+        <v>42840</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0.34097222222222223</v>
+      </c>
+      <c r="O10" s="5">
+        <v>5</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>123</v>
-      </c>
-      <c r="D8" s="1">
-        <v>35064</v>
-      </c>
-      <c r="E8" s="1">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1234</v>
+      </c>
+      <c r="D11" s="6">
+        <v>36024</v>
+      </c>
+      <c r="E11" s="6">
+        <v>42740</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="5">
+        <v>5</v>
+      </c>
+      <c r="J11" s="5">
+        <v>5</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="6">
+        <v>42840</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="O11" s="5">
+        <v>5</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1234</v>
+      </c>
+      <c r="D12" s="6">
+        <v>25100</v>
+      </c>
+      <c r="E12" s="6">
+        <v>42736</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="5">
+        <v>10</v>
+      </c>
+      <c r="J12" s="5">
+        <v>5</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="6">
         <v>42809</v>
       </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8">
-        <v>9.9</v>
-      </c>
-      <c r="K8" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="1">
-        <v>42809</v>
-      </c>
-      <c r="N8" s="4">
+      <c r="N12" s="7">
         <v>0.3444444444444445</v>
       </c>
-      <c r="O8">
+      <c r="O12" s="5">
         <v>5</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>1223</v>
-      </c>
-      <c r="D9" s="1">
-        <v>36910</v>
-      </c>
-      <c r="E9" s="1">
-        <v>42808</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1234</v>
+      </c>
+      <c r="D13" s="6">
+        <v>34379</v>
+      </c>
+      <c r="E13" s="6">
+        <v>36173</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J9">
-        <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="1">
-        <v>42809</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0.34652777777777777</v>
-      </c>
-      <c r="O9">
+      <c r="I13" s="5">
+        <v>12</v>
+      </c>
+      <c r="J13" s="5">
+        <v>12</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="6">
+        <v>42840</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0.34861111111111115</v>
+      </c>
+      <c r="O13" s="5">
         <v>4</v>
       </c>
-      <c r="P9" t="s">
-        <v>31</v>
+      <c r="P13" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
